--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1066043.34769339</v>
+        <v>726727.2304531313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>682213.8818051493</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7193824.901374977</v>
+        <v>7193824.901374979</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>186.3676115384767</v>
+        <v>160.2459439942023</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>268.6413070582234</v>
       </c>
       <c r="V4" t="n">
-        <v>216.7025476026978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>404.3795358314629</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>374.2464100056317</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>28.25293961294765</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.6975753467955905</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>147.6664364977705</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.75685339834105</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>166.634401555857</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.287249111318</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274063</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249799</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.6200406500459</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274252</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="15">
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151937</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>130.9368435547415</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.37255160319172</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898732</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857185</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692866</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329074</v>
       </c>
       <c r="G31" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373709</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789562</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463015</v>
+        <v>42.28735533462846</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415228</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539627</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287487</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689369</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593966</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463108</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689377</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3433,7 +3433,7 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329096</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
@@ -3472,13 +3472,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3676,10 +3676,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463173</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3910,10 +3910,10 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373733</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>201.9329882306601</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4367,13 +4367,13 @@
         <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>509.2375219814871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>509.2375219814871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.347031634718</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.384514694307</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="D5" t="n">
-        <v>862.1188160875561</v>
+        <v>978.1693879460879</v>
       </c>
       <c r="E5" t="n">
-        <v>476.3305634893118</v>
+        <v>592.3811353478436</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>585.4356345986401</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.489254012808</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C7" t="n">
-        <v>415.489254012808</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>415.489254012808</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4723,52 +4723,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>670.1737422186949</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>670.1737422186949</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>670.1737422186949</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>670.1737422186949</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>415.489254012808</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>415.489254012808</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="X7" t="n">
-        <v>415.489254012808</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.489254012808</v>
+        <v>579.2777040781987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.140854479381</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.140854479381</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="D8" t="n">
-        <v>999.875155872631</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="E8" t="n">
-        <v>614.0869032743867</v>
+        <v>894.7683042050589</v>
       </c>
       <c r="F8" t="n">
-        <v>203.1009984847792</v>
+        <v>483.7823994154514</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>65.81859131363825</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>65.81859131363825</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543503</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>530.3944877309076</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.3944877309076</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,22 +5060,22 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.325632214049</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1608.660951743751</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286132</v>
+        <v>206.93430423811</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>206.93430423811</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>206.93430423811</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>206.93430423811</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>206.93430423811</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035282</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035282</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>898.79251824884</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>898.79251824884</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>609.3753482118796</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>609.3753482118796</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>388.5827690683496</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805486</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382248</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1215.575286030345</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1983.943432422806</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.181607381369</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.935021465331</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,28 +5452,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262962</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011502</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952635</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5510,19 +5510,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,28 +5531,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>738.0704661731477</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="N18" t="n">
-        <v>1542.482044437298</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5774,19 +5774,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665166</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1966.019627967826</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2486.320249703573</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>441.5907806240775</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>688.3559085305416</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>1008.691228060243</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N24" t="n">
-        <v>1813.102806324394</v>
+        <v>1478.840140721312</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.642871543091</v>
+        <v>2148.303902023971</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054477</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843984</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.246603057542</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851655</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814694</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.770682899239</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.071707946799</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.9829531089974</v>
+        <v>711.0729548808326</v>
       </c>
       <c r="C28" t="n">
-        <v>695.9829531089974</v>
+        <v>542.1367719529255</v>
       </c>
       <c r="D28" t="n">
-        <v>695.9829531089974</v>
+        <v>392.0201325405896</v>
       </c>
       <c r="E28" t="n">
-        <v>548.0698595266043</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771459</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771459</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.423997082767</v>
+        <v>920.3704617344985</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.423997082767</v>
+        <v>892.7214197110725</v>
       </c>
       <c r="Y28" t="n">
-        <v>877.6314179392372</v>
+        <v>892.7214197110725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6506,7 +6506,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1010.552805248135</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1778.920951640597</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>2123.441607278215</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108322</v>
+        <v>659.460239110831</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229663</v>
+        <v>559.344147222965</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506702</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083195</v>
+        <v>398.9545963083181</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504502</v>
+        <v>320.8847398504486</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103118</v>
+        <v>221.5295092103102</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982961</v>
+        <v>139.9315917982944</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004519</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010299</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M33" t="n">
-        <v>1220.905903778934</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.466266460128</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,34 +6859,34 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6920,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>876.7826121884004</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1184.102745468362</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7078,7 +7078,7 @@
         <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7151,31 +7151,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,31 +7187,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N39" t="n">
-        <v>1423.179110240432</v>
+        <v>1451.927095122488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.642871543091</v>
+        <v>2121.390856425147</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7324,7 +7324,7 @@
         <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>478.7369164587359</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>725.5020443651999</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.870190757661</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N42" t="n">
-        <v>1823.732818421694</v>
+        <v>1339.284537624481</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2008.74829892714</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7643,34 +7643,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>232.3332043549318</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>232.3332043549318</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>479.0983322613959</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>979.7084252508739</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1784.120003515025</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7837,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.88923345256772</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>29.2755583933025</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>90.26173220657603</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>316.7097442097275</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>66.79690772124025</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>115.8518266172473</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>94.57074316089728</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>267.4788074007097</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.93311153869659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>57.87352781333151</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338349</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>11.65792206575409</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>14.48420446818972</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3371037858456</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.236344360222574e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>84.59001010593093</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="H2" t="n">
         <v>762506.6664885327</v>
-      </c>
-      <c r="F2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885328</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="K2" t="n">
         <v>800515.7256176769</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.725617677</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.7256176769</v>
       </c>
-      <c r="M2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176767</v>
-      </c>
       <c r="P2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.793690575917</v>
+        <v>787.7936905760226</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758918</v>
+        <v>787.7936905759157</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758285</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758631</v>
+        <v>787.7936905757438</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.5809318963</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189635</v>
@@ -26457,7 +26457,7 @@
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089691</v>
+        <v>-11370.37084089662</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736477</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736479</v>
+        <v>578597.5083736477</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.510372344</v>
+        <v>144571.5103723438</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492399</v>
+        <v>669731.54684924</v>
       </c>
       <c r="G6" t="n">
-        <v>669731.5468492403</v>
+        <v>669731.5468492401</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.5468492401</v>
+        <v>669731.5468492402</v>
       </c>
       <c r="I6" t="n">
         <v>669731.5468492401</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566474</v>
+        <v>493308.3276566473</v>
       </c>
       <c r="K6" t="n">
         <v>625088.5267620427</v>
       </c>
       <c r="L6" t="n">
+        <v>679594.0388657553</v>
+      </c>
+      <c r="M6" t="n">
+        <v>544793.0236319182</v>
+      </c>
+      <c r="N6" t="n">
+        <v>679594.0388657552</v>
+      </c>
+      <c r="O6" t="n">
         <v>679594.0388657551</v>
       </c>
-      <c r="M6" t="n">
-        <v>544793.0236319181</v>
-      </c>
-      <c r="N6" t="n">
-        <v>679594.0388657553</v>
-      </c>
-      <c r="O6" t="n">
-        <v>679594.038865755</v>
-      </c>
       <c r="P6" t="n">
-        <v>669731.5468492403</v>
+        <v>669731.5468492401</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,10 +26750,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.8703271175769</v>
+        <v>225.9919946618513</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="V4" t="n">
-        <v>35.43509572113018</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.496509910248562</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>39.53776001516331</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>118.4122523672102</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>285.8254229897954</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>266.1177335230244</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>140.1744628465202</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>91.82136473947509</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>59.07525383318011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,16 +28384,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="C31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="D31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="E31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="F31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="G31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="H31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="I31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="J31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="K31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="L31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="M31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="N31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="O31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="P31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="R31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="S31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="T31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="U31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="V31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="W31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="X31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964051</v>
       </c>
     </row>
     <row r="32">
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,25 +31838,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>291.3194390094544</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -32081,10 +32081,10 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>314.3268865705405</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,10 +32093,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>171.3135836203301</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>164.4498128448247</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>17.09899778122877</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>361.1511322591784</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,10 +32792,10 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
@@ -32804,13 +32804,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>225.4864315408959</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>161.3943125352949</v>
+        <v>463.3479915571558</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33272,16 +33272,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>154.5096087057374</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33442,7 +33442,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>208.1209162056323</v>
+        <v>268.1222443746797</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.1527401084879</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,19 +33983,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>140.8729045800779</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>322.7668397349904</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34214,13 +34214,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,7 +34229,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34448,13 +34448,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813462</v>
@@ -34463,13 +34463,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>481.6352832625749</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>542.5855138417395</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556567</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718749</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>546.6128520941255</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>355.801944845937</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556567</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718749</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>488.0208426728063</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>268.3650726135139</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>593.4370977827634</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.9022662376418</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>179.8509969812417</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>409.9747927665028</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>509.3949747955151</v>
+        <v>811.348653817376</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556538</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718746</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>339.5194371626004</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>502.5102709659576</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520604</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>556.1215784658525</v>
+        <v>616.1229066348999</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>619.4387056320729</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>523.8031591412522</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,19 +37631,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>488.8735668402982</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>507.2552009605973</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>217.3723463091795</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>322.945241548772</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>136.480922115804</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>549.8425096418179</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4248332.08495624</v>
+        <v>4321707.37394233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>726727.2304531313</v>
+        <v>758227.2972200601</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7193824.901374979</v>
+        <v>7095547.126422321</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>146.061301375297</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.2459439942023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>268.6413070582234</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>374.2464100056317</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>254.7213597648899</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>15.67129869336543</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6975753467955905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>97.12166249623283</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.75685339834105</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>126.0887386816669</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.2137407186092</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111318</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.6200406500459</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985772</v>
+        <v>143.3606707131384</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274252</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,16 +1666,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.6739590740911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151937</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>58.85916569696065</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>29.98526889592105</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1048420195195</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>97.47426844893042</v>
       </c>
       <c r="X28" t="n">
-        <v>27.37255160319172</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522968</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898732</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857185</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692866</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329074</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373709</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789562</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533462846</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287487</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689369</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069505</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593966</v>
+        <v>113.8271861596456</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224543</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>64.81147147621226</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689377</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329096</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>77.61058745363449</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789589</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>182.9963790058364</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789555</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.105462268937</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>214.8704404303188</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>113.1463691023991</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>201.9329882306601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4413,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4443,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4492,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.435086552838</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>978.1693879460879</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>592.3811353478436</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>585.4356345986401</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>1736.252158680222</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592772</v>
+        <v>1736.252158680222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,43 +4652,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W7" t="n">
-        <v>579.2777040781987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>579.2777040781987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.2777040781987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1280.556556803303</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.556556803303</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1280.556556803303</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>894.7683042050589</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7823994154514</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>65.81859131363825</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>65.81859131363825</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843237</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843237</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1667.156396867425</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>181.3053441250785</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>181.3053441250785</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>181.3053441250785</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>181.3053441250785</v>
       </c>
     </row>
     <row r="11">
@@ -5027,55 +5029,55 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>206.93430423811</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C13" t="n">
-        <v>206.93430423811</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D13" t="n">
-        <v>206.93430423811</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>206.93430423811</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>206.93430423811</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035282</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035282</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>898.79251824884</v>
+        <v>930.402086966861</v>
       </c>
       <c r="V13" t="n">
-        <v>898.79251824884</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="W13" t="n">
-        <v>609.3753482118796</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="X13" t="n">
-        <v>609.3753482118796</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="Y13" t="n">
-        <v>388.5827690683496</v>
+        <v>675.7175987609742</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805486</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382248</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,19 +5299,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>1215.575286030345</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M15" t="n">
-        <v>1983.943432422806</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>2328.464088060424</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.464088060424</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>488.658674475369</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>488.658674475369</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>488.658674475369</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>340.7455808929759</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262962</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011502</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952635</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W16" t="n">
-        <v>325.206642358303</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>488.658674475369</v>
       </c>
     </row>
     <row r="17">
@@ -5546,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>3114.716431007692</v>
       </c>
       <c r="M18" t="n">
-        <v>1771.466266460128</v>
+        <v>3435.051750537394</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.466266460128</v>
+        <v>3435.051750537394</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>4045.444533962832</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C19" t="n">
-        <v>665.6859735286132</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>416.1184791449342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5744,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5768,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,7 +5785,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5792,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1261.931289262097</v>
+        <v>1078.658454602814</v>
       </c>
       <c r="M21" t="n">
-        <v>2030.299435654558</v>
+        <v>1078.658454602814</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1341.503549752619</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.503549752619</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>527.8045051785811</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5978,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>674.4285624571609</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>674.4285624571609</v>
+        <v>1483.830826756747</v>
       </c>
       <c r="N24" t="n">
-        <v>1478.840140721312</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.303902023971</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.8045051785811</v>
       </c>
     </row>
     <row r="26">
@@ -6206,70 +6208,70 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1073603047985</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="M27" t="n">
-        <v>1276.47550669726</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="N27" t="n">
-        <v>2079.710673976462</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.0729548808326</v>
+        <v>674.9958217162124</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529255</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405896</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471186</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771459</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771459</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344985</v>
+        <v>856.6442865464521</v>
       </c>
       <c r="X28" t="n">
-        <v>892.7214197110725</v>
+        <v>856.6442865464521</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110725</v>
+        <v>856.6442865464521</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,13 +6484,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>450.5492660869204</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1218.917412479382</v>
       </c>
       <c r="N30" t="n">
-        <v>2554.178946862809</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>2554.178946862809</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110831</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222965</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506702</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083181</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504486</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103102</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982944</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525398</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254954</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649689</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116387</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350128</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184155</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025261</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859415</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862495</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004519</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010299</v>
+        <v>395.5481934947357</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6725,25 +6727,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>256.8958102360892</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1073603047985</v>
+        <v>486.8589161044384</v>
       </c>
       <c r="M33" t="n">
-        <v>1276.47550669726</v>
+        <v>794.1790493843999</v>
       </c>
       <c r="N33" t="n">
-        <v>1886.437184265811</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.190598349773</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>778.2831413070229</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>959.9316061372626</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>959.9316061372626</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6916,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>3114.716431007691</v>
       </c>
       <c r="M36" t="n">
-        <v>1442.339749591389</v>
+        <v>3883.084577400153</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.860405229007</v>
+        <v>4081.170525097283</v>
       </c>
       <c r="O36" t="n">
-        <v>2035.613819312969</v>
+        <v>4329.923939181245</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>323.5247178241279</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>323.5247178241279</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>175.6116242417348</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>175.6116242417348</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>175.6116242417348</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>175.6116242417348</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>327.180197328635</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M39" t="n">
-        <v>647.5155168583368</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N39" t="n">
-        <v>1451.927095122488</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>2121.390856425147</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>4676.00974573567</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>4676.00974573567</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>4676.00974573567</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>4676.00974573567</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>4386.592575698709</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>4158.603024800692</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>3937.810445657161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7402,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2787.729855520759</v>
       </c>
       <c r="L42" t="n">
-        <v>674.4285624571609</v>
+        <v>3017.692961389107</v>
       </c>
       <c r="M42" t="n">
-        <v>994.7638819868627</v>
+        <v>3786.061107781569</v>
       </c>
       <c r="N42" t="n">
-        <v>1339.284537624481</v>
+        <v>3786.061107781569</v>
       </c>
       <c r="O42" t="n">
-        <v>2008.74829892714</v>
+        <v>4034.814521865531</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>2626.17692130864</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>3240.073991065529</v>
       </c>
       <c r="M45" t="n">
-        <v>979.7084252508739</v>
+        <v>4008.442137457991</v>
       </c>
       <c r="N45" t="n">
-        <v>1784.120003515025</v>
+        <v>4008.442137457991</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>4257.195551541953</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4777.4961732777</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.3450129705744</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>527.3450129705744</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X46" t="n">
-        <v>527.3450129705744</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3450129705744</v>
+        <v>677.7114078547892</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>38.90008222125635</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,10 +9485,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>327.0565317086377</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>311.2644737775751</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,13 +9971,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4543519761087</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>10.7161965391349</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>331.4285279390206</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>316.7097442097275</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10904,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>296.8894869302654</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>115.8518266172473</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>267.4788074007097</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.87352781333151</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>142.8766816854389</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.74708894884012</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338349</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.9728144849767</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>11.65792206575409</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>96.29904972659759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>188.5993844561737</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.6048133695176716</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675363</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>189.0487298876606</v>
       </c>
       <c r="X28" t="n">
-        <v>198.3371037858456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.8824692293915</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>102.4353496224156</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>32.8086580106375</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>14.9244309777668</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>10.8392149587184</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>66.68561107953819</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>84.59001010593093</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="H2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885327</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="J2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.725617677</v>
-      </c>
       <c r="O2" t="n">
-        <v>800515.7256176769</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905760226</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759157</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758285</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905757438</v>
-      </c>
       <c r="K4" t="n">
-        <v>23206.5809318963</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089662</v>
+        <v>-11370.37084089656</v>
       </c>
       <c r="C6" t="n">
         <v>578597.5083736477</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736477</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723438</v>
+        <v>144571.5103723441</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.54684924</v>
+        <v>669731.5468492402</v>
       </c>
       <c r="G6" t="n">
+        <v>669731.5468492403</v>
+      </c>
+      <c r="H6" t="n">
+        <v>669731.5468492397</v>
+      </c>
+      <c r="I6" t="n">
+        <v>669731.5468492402</v>
+      </c>
+      <c r="J6" t="n">
+        <v>493308.3276566472</v>
+      </c>
+      <c r="K6" t="n">
+        <v>669731.5468492403</v>
+      </c>
+      <c r="L6" t="n">
+        <v>669731.5468492399</v>
+      </c>
+      <c r="M6" t="n">
+        <v>534930.531615403</v>
+      </c>
+      <c r="N6" t="n">
         <v>669731.5468492401</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>669731.5468492402</v>
       </c>
-      <c r="I6" t="n">
-        <v>669731.5468492401</v>
-      </c>
-      <c r="J6" t="n">
-        <v>493308.3276566473</v>
-      </c>
-      <c r="K6" t="n">
-        <v>625088.5267620427</v>
-      </c>
-      <c r="L6" t="n">
-        <v>679594.0388657553</v>
-      </c>
-      <c r="M6" t="n">
-        <v>544793.0236319182</v>
-      </c>
-      <c r="N6" t="n">
-        <v>679594.0388657552</v>
-      </c>
-      <c r="O6" t="n">
-        <v>679594.0388657551</v>
-      </c>
       <c r="P6" t="n">
-        <v>669731.5468492401</v>
+        <v>669731.5468492402</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>260.8147443664144</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>225.9919946618513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>17.64056718375429</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>39.53776001516331</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>94.51960895252307</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>270.6105755486123</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>285.8254229897954</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>285.6121791672477</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>140.1744628465202</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>22.52673433654542</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>91.82136473947509</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.540296344202581e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31843,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>158.0642534345934</v>
+        <v>322.7775841815154</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>314.3268865705405</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32317,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>164.4498128448247</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>365.2922922641167</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32549,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>361.1511322591784</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32707,7 +32709,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32792,25 +32794,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>225.4864315408959</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33023,31 +33025,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>153.1393592942853</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>463.3479915571558</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33263,28 +33265,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>154.5096087057374</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33503,31 +33505,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>268.1222443746797</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,16 +33736,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -33755,16 +33757,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,25 +33985,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>322.7668397349904</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>163.1847820324425</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,25 +34377,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>3.367504167639211</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>481.6352832625749</v>
+        <v>646.3486140094969</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6128520941255</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>321.2637844623645</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>488.0208426728063</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>616.5583670964018</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>593.4370977827634</v>
+        <v>576.3142366646621</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>179.9227616942418</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>409.9747927665028</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>385.4253248178703</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>811.348653817376</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556538</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718746</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>188.8999721962345</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>502.5102709659576</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520604</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.441731308613</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502434</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>161.2916351270741</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>616.1229066348999</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>200.0868158556873</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>523.8031591412522</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>154.7554530082471</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>507.2552009605973</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>289.8085800706621</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>322.945241548772</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>549.8425096418179</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>73.46301781746679</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4321707.37394233</v>
+        <v>4314690.359050618</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>758227.2972200601</v>
+        <v>637249.354416579</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7095547.126422321</v>
+        <v>7095547.12642232</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>146.061301375297</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>114.8791903675471</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>16.87326357031472</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>254.7213597648899</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>15.67129869336543</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.12166249623283</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.989590223367</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>126.0887386816669</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>143.3606707131384</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>130.6739590740911</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274027</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.85916569696065</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.98526889592105</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.1048420195195</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051978</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>97.47426844893042</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>134.1933123966024</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.8271861596456</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>64.81147147621226</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>95.02525064967648</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>77.61058745363449</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>182.9963790058364</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>149.341836478365</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>214.8704404303188</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.1463691023991</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545185</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.104153946941</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,25 +4421,25 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2680.105390442147</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2680.105390442147</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2461.47072341421</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2207.708938052301</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1876.64605070873</v>
       </c>
       <c r="W5" t="n">
-        <v>1736.252158680222</v>
+        <v>1523.877395438616</v>
       </c>
       <c r="X5" t="n">
-        <v>1736.252158680222</v>
+        <v>1150.411637177536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1346.11282670441</v>
+        <v>760.2723052017247</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>365.0435780055836</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.3053441250785</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>181.3053441250785</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230959</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>181.3053441250785</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.3053441250785</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1476.356849144414</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N12" t="n">
-        <v>1476.356849144414</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609742</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>930.402086966861</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>675.7175987609742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>675.7175987609742</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>675.7175987609742</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7175987609742</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5299,25 +5299,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N15" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>340.7455808929759</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188992</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188992</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>709.4512536188992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>3114.716431007692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>3435.051750537394</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N18" t="n">
-        <v>3435.051750537394</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962832</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429516</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>416.1184791449342</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.1184791449342</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>131.1572815496235</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>131.1572815496235</v>
       </c>
       <c r="L21" t="n">
-        <v>1078.658454602814</v>
+        <v>745.0543513065121</v>
       </c>
       <c r="M21" t="n">
-        <v>1078.658454602814</v>
+        <v>1513.422497698974</v>
       </c>
       <c r="N21" t="n">
-        <v>1423.179110240432</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.642871543091</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>558.0926555785013</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1483.830826756747</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>755.183133481126</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>527.8045051785811</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.8045051785811</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>794.1790493843997</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>794.1790493843997</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.9958217162124</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>506.0596387883055</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0596387883055</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883055</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
         <v>359.1696912903951</v>
@@ -6381,7 +6381,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6442865464521</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X28" t="n">
-        <v>856.6442865464521</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y28" t="n">
-        <v>856.6442865464521</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>450.5492660869204</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1218.917412479382</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>395.5481934947357</v>
+        <v>530.7956248556233</v>
       </c>
       <c r="C31" t="n">
-        <v>395.5481934947357</v>
+        <v>530.7956248556233</v>
       </c>
       <c r="D31" t="n">
-        <v>395.5481934947357</v>
+        <v>380.6789854432875</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>232.7658918608944</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>232.7658918608944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>232.7658918608944</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3177283550796</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X31" t="n">
-        <v>616.3407726382658</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.5481934947357</v>
+        <v>712.444089685863</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,22 +6694,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>256.8958102360892</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>486.8589161044384</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>794.1790493843999</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.2831413070229</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C34" t="n">
-        <v>712.8170085027681</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D34" t="n">
-        <v>562.7003690904323</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>193.2021931266258</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9316061372626</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y34" t="n">
-        <v>959.9316061372626</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>3114.716431007691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>3883.084577400153</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.170525097283</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>4329.923939181245</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>4850.224560916992</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>323.5247178241279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>323.5247178241279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>175.6116242417348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>175.6116242417348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>175.6116242417348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>175.6116242417348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>720.4504516500522</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>492.4609007520348</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>508.1073603047985</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>661.3152587829632</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1465.726837047114</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.190598349773</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3756.161980826922</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>3756.161980826922</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>3606.045341414586</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>3606.045341414586</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4676.00974573567</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4676.00974573567</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4676.00974573567</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>4676.00974573567</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>4386.592575698709</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>4158.603024800692</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>3937.810445657161</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>2787.729855520759</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>3017.692961389107</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>3786.061107781569</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>3786.061107781569</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>4034.814521865531</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W43" t="n">
-        <v>643.8194987924326</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X43" t="n">
-        <v>426.7786498729187</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y43" t="n">
-        <v>426.7786498729187</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2626.17692130864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3240.073991065529</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>4008.442137457991</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>4008.442137457991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>4257.195551541953</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>4777.4961732777</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>898.5039869983193</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.7114078547892</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,10 +9020,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>38.90008222125635</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>327.0565317086377</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>311.2644737775751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4543519761087</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>10.7161965391349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>178.9084595318992</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N36" t="n">
-        <v>331.4285279390206</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>296.8894869302654</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>189.645845488768</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8766816854389</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>14.74708894884012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.9728144849767</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.5993844561737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.6048133695176716</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>189.0487298876606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.72051597093369</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>111.8824692293915</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4353496224156</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71.46831781370111</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>32.8086580106375</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>14.9244309777668</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30.49014370357227</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>10.8392149587184</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.68561107953819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
@@ -26322,40 +26322,40 @@
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="K2" t="n">
         <v>762506.6664885327</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>762506.6664885328</v>
       </c>
-      <c r="H2" t="n">
-        <v>762506.6664885322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885327</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885327</v>
-      </c>
-      <c r="K2" t="n">
-        <v>762506.6664885328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885323</v>
-      </c>
       <c r="M2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="N2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,34 +26426,34 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759159</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759159</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905759211</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758301</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,19 +26487,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089656</v>
+        <v>-11370.3708408969</v>
       </c>
       <c r="C6" t="n">
         <v>578597.5083736477</v>
@@ -26530,40 +26530,40 @@
         <v>578597.5083736479</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723441</v>
+        <v>143596.919112622</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895183</v>
       </c>
       <c r="G6" t="n">
-        <v>669731.5468492403</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.5468492397</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566472</v>
+        <v>492333.7363969255</v>
       </c>
       <c r="K6" t="n">
-        <v>669731.5468492403</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="L6" t="n">
-        <v>669731.5468492399</v>
+        <v>668756.9555895186</v>
       </c>
       <c r="M6" t="n">
-        <v>534930.531615403</v>
+        <v>533955.9403556813</v>
       </c>
       <c r="N6" t="n">
-        <v>669731.5468492401</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="O6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895186</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895184</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>260.8147443664144</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>254.8519103109219</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.60513900449698</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.51960895252307</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>270.6105755486123</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.6121791672477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>15.93318254099017</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.52673433654542</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.540296344202581e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>322.7775841815154</v>
+        <v>339.3147979156456</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>251.2441961336725</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>365.2922922641167</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>206.1498559050018</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>35.0296116185181</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,28 +32797,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>153.1393592942853</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33499,13 +33499,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,16 +33514,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33736,28 +33736,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33973,31 +33973,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34137,7 +34137,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34210,31 +34210,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>163.1847820324425</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34380,7 +34380,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34450,7 +34450,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34459,19 +34459,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.367504167639211</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>646.3486140094969</v>
+        <v>662.8858277436271</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2637844623645</v>
+        <v>502.5102709659576</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>616.5583670964018</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>276.2453695548294</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36138,13 +36138,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.28302029226024</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>576.3142366646621</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>179.9227616942418</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>385.4253248178703</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>188.8999721962345</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>161.2916351270741</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>36.31221508745475</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N36" t="n">
-        <v>200.0868158556873</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686864</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>154.7554530082471</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>47.04960104432353</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8085800706621</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38107,19 +38107,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.46301781746679</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4314690.359050618</v>
+        <v>4319629.62189965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637249.354416579</v>
+        <v>637249.3544165794</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7095547.12642232</v>
+        <v>7095547.126422321</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>114.8791903675471</v>
+        <v>114.8791903675466</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385004</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.68017691661187</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274027</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051978</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.1933123966024</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>95.02525064967648</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.341836478365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>33.32815808118163</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,7 +4430,7 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4488,52 +4488,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
         <v>702.55736257324</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5020,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5029,22 +5029,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,25 +5053,25 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5108,25 +5108,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
         <v>1778.261399527878</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>761.614707935463</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>592.6785250075561</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>592.6785250075561</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>943.2631727657027</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="N15" t="n">
-        <v>2056.693778606511</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O15" t="n">
         <v>2554.178946862809</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5527,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M18" t="n">
         <v>865.5852378527472</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,16 +5819,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>131.1572815496235</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,16 +5937,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
         <v>545.9992215018333</v>
@@ -5955,7 +5955,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
         <v>2056.693778606511</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>530.7956248556233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>530.7956248556233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>380.6789854432875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>232.7658918608944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>232.7658918608944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>232.7658918608944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>933.2366688293931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>712.444089685863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>807.0580565471719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>638.121873619265</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>488.0052342069292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>340.0921406245361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2021931266258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.7065213774116</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7265,7 +7265,7 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>2056.693778606511</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O39" t="n">
         <v>2103.272883640391</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>467.9934022109799</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>299.057219283073</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>299.057219283073</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>299.057219283073</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>299.057219283073</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>130.8818976028936</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7605,16 +7605,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768801</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788628</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353326</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>178.3913131276568</v>
       </c>
       <c r="O39" t="n">
-        <v>189.645845488768</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.7537857299573</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338612</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>14.45548819888961</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>14.72051597093369</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.46831781370111</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.49014370357227</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5856702863545</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="11">
@@ -26316,16 +26316,16 @@
         <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885326</v>
@@ -26337,25 +26337,25 @@
         <v>762506.6664885326</v>
       </c>
       <c r="J2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="K2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>762506.6664885327</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885328</v>
       </c>
       <c r="M2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885329</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,16 +26426,16 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759159</v>
+        <v>787.7936905759402</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905759248</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759224</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905759159</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759211</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
@@ -26447,19 +26447,19 @@
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759082</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758301</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.3708408969</v>
+        <v>-11370.37084089679</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736477</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="D6" t="n">
         <v>578597.5083736479</v>
       </c>
       <c r="E6" t="n">
-        <v>143596.919112622</v>
+        <v>144474.0512463724</v>
       </c>
       <c r="F6" t="n">
-        <v>668756.9555895183</v>
+        <v>669634.0877232682</v>
       </c>
       <c r="G6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232677</v>
       </c>
       <c r="H6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.087723268</v>
       </c>
       <c r="I6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.087723268</v>
       </c>
       <c r="J6" t="n">
-        <v>492333.7363969255</v>
+        <v>493210.8685306751</v>
       </c>
       <c r="K6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.087723268</v>
       </c>
       <c r="L6" t="n">
-        <v>668756.9555895186</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="M6" t="n">
-        <v>533955.9403556813</v>
+        <v>534833.0724894309</v>
       </c>
       <c r="N6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="O6" t="n">
-        <v>668756.9555895186</v>
+        <v>669634.0877232683</v>
       </c>
       <c r="P6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232681</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>254.8519103109219</v>
+        <v>254.8519103109224</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.60513900449698</v>
+        <v>37.60513900449699</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,22 +31834,22 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>339.3147979156456</v>
+        <v>171.3135836203306</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,28 +32071,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>278.8426604206052</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2441961336725</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>35.0296116185181</v>
+        <v>35.02961161851808</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -33438,13 +33438,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M12" t="n">
-        <v>662.8858277436271</v>
+        <v>494.8846134483122</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>602.4136902485868</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>502.5102709659576</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.28302029226024</v>
+        <v>34.28302029226023</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>47.04960104432353</v>
       </c>
       <c r="O39" t="n">
-        <v>47.04960104432353</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
